--- a/node-app/src/assets/import_attendee_template.xlsx
+++ b/node-app/src/assets/import_attendee_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\event_organizing\node-app\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\event_organizing\node-app\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEB4E88-9357-4B85-8DEF-1099C71A8187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CCA35A-DB39-41CC-A20A-8457C97EC7EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,27 +61,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,16 +94,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,22 +379,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -439,12 +428,6 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
